--- a/GroceryApplication/src/test/resources/testdata2.xlsx
+++ b/GroceryApplication/src/test/resources/testdata2.xlsx
@@ -3,17 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1537DA77-3F78-4FCE-9CA0-B9D104EEC08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3747B01D-2602-4847-A21C-35DD075FF363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="adminuserspage" sheetId="3" r:id="rId2"/>
-    <sheet name="managenewspage" sheetId="2" r:id="rId3"/>
+    <sheet name="managecontact" sheetId="4" r:id="rId3"/>
+    <sheet name="managefootertext" sheetId="5" r:id="rId4"/>
+    <sheet name="managenewspage" sheetId="2" r:id="rId5"/>
+    <sheet name="managecategory" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O5"/>
+  <oleSize ref="A1:P5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -40,17 +43,47 @@
     <t>latest news update</t>
   </si>
   <si>
-    <t>husnaa</t>
-  </si>
-  <si>
-    <t>husna m</t>
+    <t>diya</t>
+  </si>
+  <si>
+    <t>husn</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>delivery time</t>
+  </si>
+  <si>
+    <t>delivery charge limit</t>
+  </si>
+  <si>
+    <t>hus44@gmail.com</t>
+  </si>
+  <si>
+    <t>this_address</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>new address</t>
+  </si>
+  <si>
+    <t>footer@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +96,14 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,14 +123,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794E4F49-FEAE-46B7-9A49-6820DAD6D527}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -500,6 +544,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A730DD-C74C-41CA-B122-53C6D86F3466}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1234567891</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{01C79011-068E-43D5-9F56-0B5874EDBE20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40262393-2C0B-4AC8-BBE5-CC50694266ED}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>2345678912</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CC1F5579-B130-4BFC-AF85-1377A095CCD5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3D11E0-76DD-4B77-B305-0E3CF9472D43}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -520,4 +668,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4309ACD1-3C9D-49A9-ADC1-74D31EFFA095}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>